--- a/数据表/J-精灵信息表.xlsx
+++ b/数据表/J-精灵信息表.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PetConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -127,9 +127,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -155,21 +155,89 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,50 +245,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -235,53 +282,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -310,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +501,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,13 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,30 +587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -609,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1184,7 +1184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="25.5" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>

--- a/数据表/J-精灵信息表.xlsx
+++ b/数据表/J-精灵信息表.xlsx
@@ -13,41 +13,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>RTX4090</author>
-  </authors>
-  <commentList>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>RTX4090:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0：无魂印
-其他：魂印Id</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>精灵ID</t>
   </si>
@@ -83,9 +50,6 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>strubg</t>
   </si>
   <si>
     <t>Id</t>
@@ -126,12 +90,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +127,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -170,13 +149,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -184,29 +156,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,45 +164,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,6 +178,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -273,33 +253,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -310,181 +263,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,15 +468,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -539,17 +483,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,8 +516,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,21 +554,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,10 +562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +574,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,12 +1033,13 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1149,39 +1103,39 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1189,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>80</v>
@@ -1213,6 +1167,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/数据表/J-精灵信息表.xlsx
+++ b/数据表/J-精灵信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="12000" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="PetConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>精灵ID</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>光明之灵·源</t>
+  </si>
+  <si>
+    <t>战龙哈莫</t>
   </si>
 </sst>
 </file>
@@ -90,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -110,6 +113,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -119,54 +123,92 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,61 +220,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,11 +236,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -263,187 +266,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,17 +471,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,24 +510,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -546,6 +525,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -554,6 +548,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,13 +1033,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="13" max="13" width="12.625" customWidth="1"/>
@@ -1140,7 +1143,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
@@ -1162,6 +1165,32 @@
       </c>
       <c r="H4">
         <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>1002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>130</v>
+      </c>
+      <c r="D6">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>108</v>
+      </c>
+      <c r="F6">
+        <v>108</v>
+      </c>
+      <c r="G6">
+        <v>120</v>
+      </c>
+      <c r="H6">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/数据表/J-精灵信息表.xlsx
+++ b/数据表/J-精灵信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12000" windowHeight="9405"/>
+    <workbookView windowWidth="23325" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="PetConfig" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>精灵ID</t>
   </si>
   <si>
+    <t>精灵属性</t>
+  </si>
+  <si>
     <t>精灵名称</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>Id</t>
   </si>
   <si>
+    <t>Attribute</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -86,6 +92,54 @@
   </si>
   <si>
     <t>战龙哈莫</t>
+  </si>
+  <si>
+    <t>霍特</t>
+  </si>
+  <si>
+    <t>1101|1102|1103|1104</t>
+  </si>
+  <si>
+    <t>沧沧</t>
+  </si>
+  <si>
+    <t>1105|1106|1107|1108</t>
+  </si>
+  <si>
+    <t>芳馨</t>
+  </si>
+  <si>
+    <t>1109|1110|1111|1112</t>
+  </si>
+  <si>
+    <t>桑德</t>
+  </si>
+  <si>
+    <t>1113|1114|1115|1116</t>
+  </si>
+  <si>
+    <t>赑机</t>
+  </si>
+  <si>
+    <t>1117|1118|1119|1120</t>
+  </si>
+  <si>
+    <t>血刃</t>
+  </si>
+  <si>
+    <t>1121|1122|1123|1124</t>
+  </si>
+  <si>
+    <t>耀锤</t>
+  </si>
+  <si>
+    <t>1125|1126|1127|1128</t>
+  </si>
+  <si>
+    <t>战屃</t>
+  </si>
+  <si>
+    <t>1129|1130|1131|1132</t>
   </si>
 </sst>
 </file>
@@ -94,9 +148,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -113,92 +167,68 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,6 +243,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -223,6 +269,20 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,27 +297,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,13 +320,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,43 +440,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,121 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,26 +517,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,21 +530,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -542,6 +567,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -557,6 +593,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,142 +637,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1033,19 +1099,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="27.375" customWidth="1"/>
+    <col min="14" max="14" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1076,121 +1144,387 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1001</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
         <v>80</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>124</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>104</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>100</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>124</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>1002</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>130</v>
       </c>
-      <c r="D6">
+      <c r="E5">
         <v>74</v>
       </c>
-      <c r="E6">
+      <c r="F5">
         <v>108</v>
       </c>
-      <c r="F6">
+      <c r="G5">
         <v>108</v>
       </c>
-      <c r="G6">
+      <c r="H5">
         <v>120</v>
       </c>
-      <c r="H6">
+      <c r="I5">
         <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2">
+        <v>112</v>
+      </c>
+      <c r="E6" s="2">
+        <v>112</v>
+      </c>
+      <c r="F6" s="2">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2">
+        <v>80</v>
+      </c>
+      <c r="H6" s="2">
+        <v>114</v>
+      </c>
+      <c r="I6" s="2">
+        <v>120</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2">
+        <v>120</v>
+      </c>
+      <c r="E7" s="2">
+        <v>95</v>
+      </c>
+      <c r="F7" s="2">
+        <v>93</v>
+      </c>
+      <c r="G7" s="2">
+        <v>92</v>
+      </c>
+      <c r="H7" s="2">
+        <v>86</v>
+      </c>
+      <c r="I7" s="2">
+        <v>124</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1003</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2">
+        <v>81</v>
+      </c>
+      <c r="E8" s="2">
+        <v>109</v>
+      </c>
+      <c r="F8" s="2">
+        <v>106</v>
+      </c>
+      <c r="G8" s="2">
+        <v>112</v>
+      </c>
+      <c r="H8" s="2">
+        <v>76</v>
+      </c>
+      <c r="I8" s="2">
+        <v>130</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1007</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2">
+        <v>119</v>
+      </c>
+      <c r="E9" s="2">
+        <v>79</v>
+      </c>
+      <c r="F9" s="2">
+        <v>85</v>
+      </c>
+      <c r="G9" s="2">
+        <v>87</v>
+      </c>
+      <c r="H9" s="2">
+        <v>109</v>
+      </c>
+      <c r="I9" s="2">
+        <v>125</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
+        <v>3010</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3">
+        <v>82</v>
+      </c>
+      <c r="E10" s="3">
+        <v>112</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>90</v>
+      </c>
+      <c r="H10" s="3">
+        <v>90</v>
+      </c>
+      <c r="I10" s="3">
+        <v>126</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
+        <v>3012</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1009</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3">
+        <v>118</v>
+      </c>
+      <c r="E11" s="3">
+        <v>85</v>
+      </c>
+      <c r="F11" s="3">
+        <v>90</v>
+      </c>
+      <c r="G11" s="3">
+        <v>89</v>
+      </c>
+      <c r="H11" s="3">
+        <v>88</v>
+      </c>
+      <c r="I11" s="3">
+        <v>128</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
+        <v>3025</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3">
+        <v>83</v>
+      </c>
+      <c r="E12" s="3">
+        <v>114</v>
+      </c>
+      <c r="F12" s="3">
+        <v>80</v>
+      </c>
+      <c r="G12" s="3">
+        <v>88</v>
+      </c>
+      <c r="H12" s="3">
+        <v>103</v>
+      </c>
+      <c r="I12" s="3">
+        <v>123</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
+        <v>3044</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1012</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3">
+        <v>118</v>
+      </c>
+      <c r="E13" s="3">
+        <v>87</v>
+      </c>
+      <c r="F13" s="3">
+        <v>103</v>
+      </c>
+      <c r="G13" s="3">
+        <v>87</v>
+      </c>
+      <c r="H13" s="3">
+        <v>81</v>
+      </c>
+      <c r="I13" s="3">
+        <v>114</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/数据表/J-精灵信息表.xlsx
+++ b/数据表/J-精灵信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="12540"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="PetConfig" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>精灵ID</t>
   </si>
   <si>
+    <t>精灵头像</t>
+  </si>
+  <si>
+    <t>精灵图片</t>
+  </si>
+  <si>
     <t>精灵属性</t>
   </si>
   <si>
@@ -56,6 +62,12 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>PetAvatar</t>
+  </si>
+  <si>
+    <t>PetPic</t>
   </si>
   <si>
     <t>Attribute</t>
@@ -147,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -169,6 +181,87 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,18 +275,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,35 +299,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -244,45 +309,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,23 +322,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,79 +338,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,103 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,6 +523,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,21 +546,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +567,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -576,20 +585,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,7 +604,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,134 +646,134 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,9 +781,6 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,21 +1102,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="C6" sqref="C6:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="10" max="10" width="27.375" customWidth="1"/>
-    <col min="14" max="14" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="27.375" customWidth="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1147,384 +1152,450 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1001</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4">
         <v>80</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>124</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>104</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>100</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>124</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>1002</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5">
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5">
         <v>130</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>74</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>108</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>108</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>120</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>1</v>
       </c>
       <c r="B6" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20001</v>
+      </c>
+      <c r="D6" s="2">
         <v>1002</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2">
         <v>112</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <v>112</v>
       </c>
-      <c r="F6" s="2">
+      <c r="H6" s="2">
         <v>80</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
         <v>80</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>114</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>120</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>27</v>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>2</v>
       </c>
       <c r="B7" s="2">
+        <v>10002</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20002</v>
+      </c>
+      <c r="D7" s="2">
         <v>1001</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
         <v>120</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>95</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>93</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>92</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>86</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>124</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>29</v>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>3</v>
       </c>
       <c r="B8" s="2">
+        <v>10003</v>
+      </c>
+      <c r="C8" s="2">
+        <v>20003</v>
+      </c>
+      <c r="D8" s="2">
         <v>1003</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2">
         <v>81</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <v>109</v>
       </c>
-      <c r="F8" s="2">
+      <c r="H8" s="2">
         <v>106</v>
       </c>
-      <c r="G8" s="2">
+      <c r="I8" s="2">
         <v>112</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>76</v>
       </c>
-      <c r="I8" s="2">
+      <c r="K8" s="2">
         <v>130</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>31</v>
+      <c r="L8" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>4</v>
       </c>
       <c r="B9" s="2">
+        <v>10004</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20004</v>
+      </c>
+      <c r="D9" s="2">
         <v>1007</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2">
         <v>119</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <v>79</v>
       </c>
-      <c r="F9" s="2">
+      <c r="H9" s="2">
         <v>85</v>
       </c>
-      <c r="G9" s="2">
+      <c r="I9" s="2">
         <v>87</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="2">
         <v>109</v>
       </c>
-      <c r="I9" s="2">
+      <c r="K9" s="2">
         <v>125</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>33</v>
+      <c r="L9" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3">
-        <v>3010</v>
-      </c>
-      <c r="B10" s="3">
+    <row r="10" spans="1:12">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10005</v>
+      </c>
+      <c r="C10" s="2">
+        <v>20005</v>
+      </c>
+      <c r="D10" s="2">
         <v>1006</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2">
         <v>82</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="2">
         <v>112</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="2">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="2">
         <v>90</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="2">
         <v>90</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="2">
         <v>126</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>35</v>
+      <c r="L10" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3">
-        <v>3012</v>
-      </c>
-      <c r="B11" s="3">
+    <row r="11" spans="1:12">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10006</v>
+      </c>
+      <c r="C11" s="2">
+        <v>20006</v>
+      </c>
+      <c r="D11" s="2">
         <v>1009</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2">
         <v>118</v>
       </c>
-      <c r="E11" s="3">
+      <c r="G11" s="2">
         <v>85</v>
       </c>
-      <c r="F11" s="3">
+      <c r="H11" s="2">
         <v>90</v>
       </c>
-      <c r="G11" s="3">
+      <c r="I11" s="2">
         <v>89</v>
       </c>
-      <c r="H11" s="3">
+      <c r="J11" s="2">
         <v>88</v>
       </c>
-      <c r="I11" s="3">
+      <c r="K11" s="2">
         <v>128</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>37</v>
+      <c r="L11" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3">
-        <v>3025</v>
-      </c>
-      <c r="B12" s="3">
+    <row r="12" spans="1:12">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10007</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20007</v>
+      </c>
+      <c r="D12" s="2">
         <v>1010</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="2">
         <v>83</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="2">
         <v>114</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="2">
         <v>80</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="2">
         <v>88</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="2">
         <v>103</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="2">
         <v>123</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>39</v>
+      <c r="L12" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="3">
-        <v>3044</v>
-      </c>
-      <c r="B13" s="3">
+    <row r="13" spans="1:12">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10008</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20008</v>
+      </c>
+      <c r="D13" s="2">
         <v>1012</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2">
         <v>118</v>
       </c>
-      <c r="E13" s="3">
+      <c r="G13" s="2">
         <v>87</v>
       </c>
-      <c r="F13" s="3">
+      <c r="H13" s="2">
         <v>103</v>
       </c>
-      <c r="G13" s="3">
+      <c r="I13" s="2">
         <v>87</v>
       </c>
-      <c r="H13" s="3">
+      <c r="J13" s="2">
         <v>81</v>
       </c>
-      <c r="I13" s="3">
+      <c r="K13" s="2">
         <v>114</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>41</v>
+      <c r="L13" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/数据表/J-精灵信息表.xlsx
+++ b/数据表/J-精灵信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="PetConfig" sheetId="1" r:id="rId1"/>
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -179,6 +179,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -187,16 +188,123 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,117 +317,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -338,25 +338,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,151 +506,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +528,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -535,32 +546,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,17 +565,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -600,26 +585,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,133 +643,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C13"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1299,10 +1299,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
+        <v>20001</v>
+      </c>
+      <c r="C6" s="2">
         <v>10001</v>
-      </c>
-      <c r="C6" s="2">
-        <v>20001</v>
       </c>
       <c r="D6" s="2">
         <v>1002</v>
@@ -1337,10 +1337,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="2">
+        <v>20002</v>
+      </c>
+      <c r="C7" s="2">
         <v>10002</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20002</v>
       </c>
       <c r="D7" s="2">
         <v>1001</v>
@@ -1375,10 +1375,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="2">
+        <v>20003</v>
+      </c>
+      <c r="C8" s="2">
         <v>10003</v>
-      </c>
-      <c r="C8" s="2">
-        <v>20003</v>
       </c>
       <c r="D8" s="2">
         <v>1003</v>
@@ -1413,10 +1413,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
+        <v>20004</v>
+      </c>
+      <c r="C9" s="2">
         <v>10004</v>
-      </c>
-      <c r="C9" s="2">
-        <v>20004</v>
       </c>
       <c r="D9" s="2">
         <v>1007</v>
@@ -1451,10 +1451,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="2">
+        <v>20005</v>
+      </c>
+      <c r="C10" s="2">
         <v>10005</v>
-      </c>
-      <c r="C10" s="2">
-        <v>20005</v>
       </c>
       <c r="D10" s="2">
         <v>1006</v>
@@ -1489,10 +1489,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="2">
+        <v>20006</v>
+      </c>
+      <c r="C11" s="2">
         <v>10006</v>
-      </c>
-      <c r="C11" s="2">
-        <v>20006</v>
       </c>
       <c r="D11" s="2">
         <v>1009</v>
@@ -1527,10 +1527,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="2">
+        <v>20007</v>
+      </c>
+      <c r="C12" s="2">
         <v>10007</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20007</v>
       </c>
       <c r="D12" s="2">
         <v>1010</v>
@@ -1565,10 +1565,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="2">
+        <v>20008</v>
+      </c>
+      <c r="C13" s="2">
         <v>10008</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20008</v>
       </c>
       <c r="D13" s="2">
         <v>1012</v>

--- a/数据表/J-精灵信息表.xlsx
+++ b/数据表/J-精灵信息表.xlsx
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -177,6 +177,89 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -187,10 +270,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,88 +302,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -299,29 +322,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -338,12 +338,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -356,7 +428,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,151 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,50 +523,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -600,6 +556,59 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -614,15 +623,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -631,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,133 +643,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
